--- a/app/Licenciatura_em_Oceanografia.xlsx
+++ b/app/Licenciatura_em_Oceanografia.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Tuafina Saide Suleimane</t>
   </si>
   <si>
-    <t>Cidade de Beira</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
     <t>Ana Zaona</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>030100740590B</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Muaziza Imamo</t>
   </si>
   <si>
-    <t>Cidade de Pemba</t>
-  </si>
-  <si>
     <t>020102099401M</t>
   </si>
   <si>
@@ -283,9 +274,6 @@
     <t>Clementina Africano Benet</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -313,9 +301,6 @@
     <t>Goldina  Sibanda</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110102095161J</t>
   </si>
   <si>
@@ -340,9 +325,6 @@
     <t>Julieta Antonio Sitoe</t>
   </si>
   <si>
-    <t>Cidade de Xai-Xai</t>
-  </si>
-  <si>
     <t>090101477901S</t>
   </si>
   <si>
@@ -367,9 +349,6 @@
     <t>Estenia Mafunga</t>
   </si>
   <si>
-    <t>Cidade de Quelimane</t>
-  </si>
-  <si>
     <t>041302010730S</t>
   </si>
   <si>
@@ -394,9 +373,6 @@
     <t>Taja Augusto Tapera</t>
   </si>
   <si>
-    <t>Distrito de Govuro</t>
-  </si>
-  <si>
     <t>080300305700I</t>
   </si>
   <si>
@@ -421,9 +397,6 @@
     <t>Eugenia Roque Njojo</t>
   </si>
   <si>
-    <t>Distrito de Mocuba</t>
-  </si>
-  <si>
     <t>041102352841M</t>
   </si>
   <si>
@@ -448,9 +421,6 @@
     <t>Amelia  Macandja</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>110101387164Q</t>
   </si>
   <si>
@@ -520,9 +490,6 @@
     <t>CÍcilia Samuel</t>
   </si>
   <si>
-    <t>Distrito de Angoche</t>
-  </si>
-  <si>
     <t>030204359882A</t>
   </si>
   <si>
@@ -580,9 +547,6 @@
     <t>Maria Celestina Jose</t>
   </si>
   <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
     <t>080104326010C</t>
   </si>
   <si>
@@ -649,9 +613,6 @@
     <t>Lurdes Joao Chabuca</t>
   </si>
   <si>
-    <t>Distrito de Manica</t>
-  </si>
-  <si>
     <t>060702553061I</t>
   </si>
   <si>
@@ -676,9 +637,6 @@
     <t>Isabel Marrengula</t>
   </si>
   <si>
-    <t>Cidade de Maxixe</t>
-  </si>
-  <si>
     <t>080100462717B</t>
   </si>
   <si>
@@ -803,9 +761,6 @@
   </si>
   <si>
     <t>Filomena Samuel Baciquete</t>
-  </si>
-  <si>
-    <t>Distrito de Morrumbene</t>
   </si>
   <si>
     <t>080104248046S</t>
@@ -2134,7 +2089,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2150,7 +2105,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2166,7 +2121,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2182,7 +2137,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2198,7 +2153,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2213,9 +2168,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2223,7 +2176,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2234,7 +2187,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2243,7 +2196,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2255,7 +2208,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2263,7 +2216,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2359,7 +2312,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2402,7 +2355,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2729,7 +2682,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2745,7 +2698,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2761,7 +2714,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2777,7 +2730,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2793,7 +2746,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2808,9 +2761,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>133</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2818,7 +2769,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2829,7 +2780,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2838,7 +2789,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2850,7 +2801,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2858,7 +2809,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2954,7 +2905,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2997,7 +2948,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3324,7 +3275,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3340,7 +3291,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3356,7 +3307,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3372,7 +3323,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3388,7 +3339,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3403,9 +3354,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3413,7 +3362,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3424,7 +3373,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3433,7 +3382,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3445,7 +3394,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3453,7 +3402,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3549,7 +3498,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3592,7 +3541,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3919,7 +3868,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3935,7 +3884,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3951,7 +3900,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3967,7 +3916,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3983,7 +3932,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3998,9 +3947,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4008,7 +3955,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4019,7 +3966,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4028,7 +3975,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4040,7 +3987,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4048,7 +3995,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4144,7 +4091,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4187,7 +4134,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4514,7 +4461,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4530,7 +4477,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4546,7 +4493,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4562,7 +4509,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4578,7 +4525,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4593,9 +4540,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4603,7 +4548,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4614,7 +4559,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4623,7 +4568,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4635,7 +4580,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4643,7 +4588,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4739,7 +4684,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4782,7 +4727,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5109,7 +5054,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5125,7 +5070,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5141,7 +5086,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5157,7 +5102,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5173,7 +5118,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5188,9 +5133,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5198,7 +5141,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5209,7 +5152,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5218,7 +5161,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5230,7 +5173,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5238,7 +5181,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5334,7 +5277,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5377,7 +5320,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5704,7 +5647,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5720,7 +5663,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5911,7 +5854,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6277,7 +6220,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6293,7 +6236,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6309,7 +6252,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6325,7 +6268,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6341,7 +6284,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6356,9 +6299,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6366,7 +6307,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6377,7 +6318,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6386,7 +6327,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6398,7 +6339,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6406,7 +6347,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6502,7 +6443,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6545,7 +6486,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6872,7 +6813,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6888,7 +6829,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6904,7 +6845,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6920,7 +6861,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6936,7 +6877,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6951,9 +6892,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6961,7 +6900,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6972,7 +6911,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6981,7 +6920,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6993,7 +6932,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7001,7 +6940,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7097,7 +7036,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7140,7 +7079,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7467,7 +7406,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7483,7 +7422,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7499,7 +7438,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7515,7 +7454,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7531,7 +7470,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7546,9 +7485,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7556,7 +7493,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7567,7 +7504,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7576,7 +7513,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7588,7 +7525,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7596,7 +7533,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7692,7 +7629,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7735,7 +7672,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8141,9 +8078,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8151,7 +8086,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8162,7 +8097,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8171,7 +8106,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8183,7 +8118,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8191,7 +8126,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8287,7 +8222,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8330,7 +8265,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8657,7 +8592,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8673,7 +8608,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8689,7 +8624,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8705,7 +8640,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8721,7 +8656,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8736,9 +8671,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>200</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8746,7 +8679,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8757,7 +8690,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8766,7 +8699,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8778,7 +8711,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8786,7 +8719,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8882,7 +8815,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8925,7 +8858,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9252,7 +9185,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9268,7 +9201,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9284,7 +9217,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9300,7 +9233,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9316,7 +9249,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9331,9 +9264,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>209</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9341,7 +9272,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9352,7 +9283,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9361,7 +9292,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9373,7 +9304,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9381,7 +9312,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9477,7 +9408,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9520,7 +9451,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9847,7 +9778,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9863,7 +9794,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9879,7 +9810,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9895,7 +9826,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9911,7 +9842,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9926,9 +9857,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9936,7 +9865,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9947,7 +9876,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9956,7 +9885,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9968,7 +9897,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9976,7 +9905,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10072,7 +10001,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10115,7 +10044,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10442,7 +10371,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10458,7 +10387,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10474,7 +10403,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10490,7 +10419,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10506,7 +10435,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10521,9 +10450,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10531,7 +10458,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10542,7 +10469,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10551,7 +10478,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10563,7 +10490,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10571,7 +10498,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10667,7 +10594,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10710,7 +10637,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11037,7 +10964,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11053,7 +10980,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11069,7 +10996,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11085,7 +11012,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11101,7 +11028,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11116,9 +11043,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11126,7 +11051,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11137,7 +11062,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11146,7 +11071,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11158,7 +11083,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11262,7 +11187,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11305,7 +11230,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11632,7 +11557,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11648,7 +11573,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11664,7 +11589,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11680,7 +11605,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11696,7 +11621,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11711,9 +11636,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11721,7 +11644,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11732,7 +11655,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11741,7 +11664,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11753,7 +11676,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11761,7 +11684,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11857,7 +11780,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11900,7 +11823,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12227,7 +12150,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12243,7 +12166,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12259,7 +12182,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12275,7 +12198,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12291,7 +12214,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12306,9 +12229,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>177</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12316,7 +12237,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12327,7 +12248,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12336,7 +12257,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12348,7 +12269,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12356,7 +12277,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12452,7 +12373,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12495,7 +12416,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12822,7 +12743,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12838,7 +12759,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12854,7 +12775,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12870,7 +12791,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12886,7 +12807,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12901,9 +12822,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>252</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12911,7 +12830,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12922,7 +12841,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12931,7 +12850,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12943,7 +12862,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12951,7 +12870,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13047,7 +12966,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13090,7 +13009,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13417,7 +13336,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13433,7 +13352,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13449,7 +13368,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13465,7 +13384,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13481,7 +13400,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13496,9 +13415,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>157</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13506,7 +13423,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13517,7 +13434,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13526,7 +13443,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13538,7 +13455,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13546,7 +13463,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13642,7 +13559,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13685,7 +13602,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14012,7 +13929,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14028,7 +13945,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14044,7 +13961,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14060,7 +13977,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14076,7 +13993,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14091,9 +14008,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14101,7 +14016,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14112,7 +14027,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14121,7 +14036,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14133,7 +14048,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14141,7 +14056,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14237,7 +14152,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14280,7 +14195,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14607,7 +14522,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14623,7 +14538,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14639,7 +14554,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14655,7 +14570,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14671,7 +14586,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14686,9 +14601,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14696,7 +14609,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14707,7 +14620,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14716,7 +14629,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14728,7 +14641,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14736,7 +14649,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14832,7 +14745,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14875,7 +14788,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15202,7 +15115,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15218,7 +15131,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15234,7 +15147,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15250,7 +15163,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15266,7 +15179,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15281,9 +15194,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>124</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15291,7 +15202,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15302,7 +15213,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15311,7 +15222,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15323,7 +15234,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15427,7 +15338,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15470,7 +15381,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15853,7 +15764,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15869,7 +15780,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15885,7 +15796,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15901,7 +15812,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15917,7 +15828,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15932,9 +15843,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15942,7 +15851,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15953,7 +15862,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15962,7 +15871,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15974,7 +15883,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15982,7 +15891,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16078,7 +15987,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16121,7 +16030,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16448,7 +16357,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16464,7 +16373,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16480,7 +16389,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16496,7 +16405,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16512,7 +16421,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16527,9 +16436,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16537,7 +16444,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16548,7 +16455,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16557,7 +16464,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16569,7 +16476,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16577,7 +16484,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16673,7 +16580,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16716,7 +16623,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17043,7 +16950,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17059,7 +16966,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17075,7 +16982,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17091,7 +16998,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17107,7 +17014,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17122,9 +17029,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17132,7 +17037,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17143,7 +17048,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17152,7 +17057,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17164,7 +17069,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17172,7 +17077,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17268,7 +17173,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17311,7 +17216,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17638,7 +17543,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17654,7 +17559,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17670,7 +17575,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17686,7 +17591,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17702,7 +17607,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17717,9 +17622,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>97</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17727,7 +17630,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17738,7 +17641,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17747,7 +17650,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17759,7 +17662,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17767,7 +17670,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17863,7 +17766,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17906,7 +17809,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18233,7 +18136,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18249,7 +18152,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18265,7 +18168,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18281,7 +18184,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18297,7 +18200,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18312,9 +18215,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18322,7 +18223,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18333,7 +18234,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18342,7 +18243,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18354,7 +18255,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18362,7 +18263,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18458,7 +18359,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18501,7 +18402,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18828,7 +18729,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18844,7 +18745,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18860,7 +18761,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18876,7 +18777,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18892,7 +18793,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18907,9 +18808,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>115</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18917,7 +18816,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18928,7 +18827,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18937,7 +18836,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18949,7 +18848,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18957,7 +18856,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19053,7 +18952,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19096,7 +18995,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
